--- a/Consumer/DraftKings.xlsx
+++ b/Consumer/DraftKings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA068A6-A88D-7A42-88A8-3A0752A219BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04DEAEE-71B5-614F-848E-262F578D8947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1462,12 +1462,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="13" fillId="12" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="12" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1491,12 +1485,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1657,17 +1645,17 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="10" fontId="20" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1687,7 +1675,19 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="12" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="12" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1726,6 +1726,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Quality"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1743,7 +1744,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.4839999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1755,6 +1756,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1880,13 +1882,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>36.369999999999997</v>
+    <v>39.35</v>
     <v>10.6936</v>
-    <v>1.8523000000000001</v>
-    <v>-1.23</v>
-    <v>-3.4129E-2</v>
-    <v>-0.13</v>
-    <v>-3.735E-3</v>
+    <v>1.9132</v>
+    <v>0.05</v>
+    <v>1.2920000000000002E-3</v>
+    <v>-0.05</v>
+    <v>-1.2900000000000001E-3</v>
     <v>USD</v>
     <v>DraftKings Inc. is a digital sports entertainment and gaming company. The Company provides users with sports betting, online casino and daily fantasy sports products, as well as media and other online consumer products. Its segments include business-to-consumer (B2C) and business-to-business (B2B). Its B2C segment includes its DraftKings-branded Sportsbook, iGaming and DFS products, as well as its other online consumer products, and its GNOG-branded Sportsbooks and iGaming products. Across its DraftKings-branded products, it offers users a single integrated product that provides one account, one wallet, a centralized payment system and responsible gaming controls. Its B2B segment is engaged in the design and development of sports betting and casino gaming software. Its B2B services are delivered through its software, and its complementary service offerings include trading and risk management and support for reporting, customer management and regulatory reporting requirements.</v>
     <v>4200</v>
@@ -1894,24 +1896,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>222 Berkeley Street, 5th Floor, BOSTON, MA, 02116 US</v>
-    <v>35.67</v>
+    <v>39.35</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45240.039865508596</v>
+    <v>45258.040943599219</v>
     <v>0</v>
-    <v>34.58</v>
-    <v>16229880539</v>
+    <v>38.549999999999997</v>
+    <v>18066873625</v>
     <v>DRAFTKINGS INC.</v>
     <v>DRAFTKINGS INC.</v>
-    <v>35.5</v>
-    <v>36.04</v>
-    <v>34.81</v>
-    <v>34.68</v>
+    <v>38.56</v>
+    <v>38.700000000000003</v>
+    <v>38.75</v>
+    <v>38.700000000000003</v>
     <v>466241900</v>
     <v>DKNG</v>
     <v>DRAFTKINGS INC. (XNAS:DKNG)</v>
-    <v>15484176</v>
-    <v>14034275</v>
+    <v>8717368</v>
+    <v>16080104</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2073,9 +2075,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2517,20 +2519,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView topLeftCell="A152" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F176" sqref="F176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="13" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2568,7 +2570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
@@ -2606,13 +2608,13 @@
         <v>874927000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11">
-        <f t="shared" ref="C3:O3" si="0">(C2/B2)-1</f>
+        <f t="shared" ref="C3:L3" si="0">(C2/B2)-1</f>
         <v>0.17948437271950124</v>
       </c>
       <c r="D3" s="11">
@@ -2649,7 +2651,7 @@
         <v>0.13678259784941771</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2687,7 +2689,7 @@
         <v>874927000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -2725,7 +2727,7 @@
         <v>510323000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>510323000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>15</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>364604000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>51</v>
       </c>
@@ -2839,7 +2841,7 @@
         <v>41.67</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -2877,7 +2879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>433649000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>19</v>
       </c>
@@ -2953,12 +2955,12 @@
         <v>343743000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>185</v>
       </c>
       <c r="B12" s="13">
-        <f t="shared" ref="B12:O12" si="1">B11/B2</f>
+        <f t="shared" ref="B12:L12" si="1">B11/B2</f>
         <v>1.110694105627489</v>
       </c>
       <c r="C12" s="13">
@@ -3002,7 +3004,7 @@
         <v>0.39288192043450482</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
@@ -3040,12 +3042,12 @@
         <v>89906000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>186</v>
       </c>
       <c r="B14" s="15">
-        <f t="shared" ref="B14:O14" si="2">B13/B2</f>
+        <f t="shared" ref="B14:L14" si="2">B13/B2</f>
         <v>0.105356435437126</v>
       </c>
       <c r="C14" s="15">
@@ -3089,7 +3091,7 @@
         <v>0.10275828726282307</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -3127,7 +3129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
         <v>22</v>
       </c>
@@ -3165,7 +3167,7 @@
         <v>-69045000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>52</v>
       </c>
@@ -3203,7 +3205,7 @@
         <v>-7.89</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>187</v>
       </c>
@@ -3221,7 +3223,7 @@
         <v>4.754246135999181</v>
       </c>
       <c r="F18" s="13">
-        <f t="shared" ref="F18:O18" si="3">(F16/E16)-1</f>
+        <f t="shared" ref="F18:L18" si="3">(F16/E16)-1</f>
         <v>0.85188958038839924</v>
       </c>
       <c r="G18" s="13">
@@ -3246,7 +3248,7 @@
         <v>-0.82286388650153286</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -3284,7 +3286,7 @@
         <v>7251000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -3322,7 +3324,7 @@
         <v>-12745000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -3360,7 +3362,7 @@
         <v>666000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -3398,7 +3400,7 @@
         <v>13411000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -3436,7 +3438,7 @@
         <v>19996000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3474,7 +3476,7 @@
         <v>-76296000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -3512,7 +3514,7 @@
         <v>651000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>-77270000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -3626,7 +3628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -3664,7 +3666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -3702,7 +3704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -3740,7 +3742,7 @@
         <v>-77270000</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -3778,7 +3780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="30" t="s">
         <v>37</v>
       </c>
@@ -3816,7 +3818,7 @@
         <v>-77270000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>53</v>
       </c>
@@ -3854,7 +3856,7 @@
         <v>-8.83</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>188</v>
       </c>
@@ -3872,7 +3874,7 @@
         <v>4.9149887202768783</v>
       </c>
       <c r="F35" s="15">
-        <f t="shared" ref="F35:O35" si="4">(F33/E33)-1</f>
+        <f t="shared" ref="F35:L35" si="4">(F33/E33)-1</f>
         <v>0.80415625333128027</v>
       </c>
       <c r="G35" s="15">
@@ -3897,12 +3899,12 @@
         <v>-0.80543777130943628</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>189</v>
       </c>
       <c r="B36" s="21" t="e">
-        <f t="shared" ref="B36:O36" si="5">(B16*(1-0.25))/(B126+B105+B96)</f>
+        <f t="shared" ref="B36:L36" si="5">(B16*(1-0.25))/(B126+B105+B96)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C36" s="21" t="e">
@@ -3946,7 +3948,7 @@
         <v>-2.214273374970175E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -3984,7 +3986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -4022,7 +4024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>-77270000</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -4098,7 +4100,7 @@
         <v>462432000</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
@@ -4136,7 +4138,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -4174,7 +4176,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
@@ -4212,7 +4214,7 @@
         <v>462432000</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
@@ -4250,7 +4252,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
@@ -4288,7 +4290,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
@@ -4326,7 +4328,7 @@
         <v>-20781000</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
@@ -4364,7 +4366,7 @@
         <v>-31.81</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
@@ -4402,7 +4404,7 @@
         <v>-69045000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
@@ -4440,7 +4442,7 @@
         <v>-69045000</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -4478,7 +4480,7 @@
         <v>208316</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
@@ -4516,7 +4518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -4554,7 +4556,7 @@
         <v>48264000</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
@@ -4592,7 +4594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -4630,7 +4632,7 @@
         <v>1719021000</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -4668,7 +4670,7 @@
         <v>1113715000</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>59</v>
       </c>
@@ -4706,7 +4708,7 @@
         <v>1113715000</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>60</v>
       </c>
@@ -4744,7 +4746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>61</v>
       </c>
@@ -4782,7 +4784,7 @@
         <v>141554000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -4820,7 +4822,7 @@
         <v>141554000</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -4858,7 +4860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -4896,7 +4898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -4934,7 +4936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>66</v>
       </c>
@@ -4972,7 +4974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -5010,7 +5012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -5048,7 +5050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -5086,7 +5088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -5124,7 +5126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -5162,7 +5164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -5200,7 +5202,7 @@
         <v>463752000</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -5238,7 +5240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>74</v>
       </c>
@@ -5276,7 +5278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>75</v>
       </c>
@@ -5314,7 +5316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>76</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>77</v>
       </c>
@@ -5390,7 +5392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>78</v>
       </c>
@@ -5428,7 +5430,7 @@
         <v>1887243000</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
@@ -5466,7 +5468,7 @@
         <v>118283000</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>80</v>
       </c>
@@ -5504,7 +5506,7 @@
         <v>118283000</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>81</v>
       </c>
@@ -5542,7 +5544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>82</v>
       </c>
@@ -5580,7 +5582,7 @@
         <v>9638000</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>83</v>
       </c>
@@ -5618,7 +5620,7 @@
         <v>9638000</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>84</v>
       </c>
@@ -5656,7 +5658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>85</v>
       </c>
@@ -5694,7 +5696,7 @@
         <v>1759322000</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>86</v>
       </c>
@@ -5732,7 +5734,7 @@
         <v>1621006000</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>87</v>
       </c>
@@ -5770,7 +5772,7 @@
         <v>886373000</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>88</v>
       </c>
@@ -5808,7 +5810,7 @@
         <v>734633000</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>89</v>
       </c>
@@ -5846,7 +5848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>90</v>
       </c>
@@ -5884,7 +5886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>91</v>
       </c>
@@ -5922,7 +5924,7 @@
         <v>138316000</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>92</v>
       </c>
@@ -5960,7 +5962,7 @@
         <v>3606264000</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>93</v>
       </c>
@@ -5998,7 +6000,7 @@
         <v>436265000</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>94</v>
       </c>
@@ -6036,7 +6038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>95</v>
       </c>
@@ -6074,7 +6076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>96</v>
       </c>
@@ -6112,7 +6114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>97</v>
       </c>
@@ -6150,7 +6152,7 @@
         <v>436265000</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>98</v>
       </c>
@@ -6188,7 +6190,7 @@
         <v>3305000</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>99</v>
       </c>
@@ -6226,7 +6228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>100</v>
       </c>
@@ -6264,7 +6266,7 @@
         <v>3305000</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>101</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>637666000</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>102</v>
       </c>
@@ -6340,7 +6342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>103</v>
       </c>
@@ -6378,7 +6380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>104</v>
       </c>
@@ -6416,7 +6418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>105</v>
       </c>
@@ -6454,7 +6456,7 @@
         <v>637666000</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>106</v>
       </c>
@@ -6492,7 +6494,7 @@
         <v>1077236000</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
@@ -6530,7 +6532,7 @@
         <v>1316838000</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>108</v>
       </c>
@@ -6568,7 +6570,7 @@
         <v>1252420000</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>109</v>
       </c>
@@ -6606,7 +6608,7 @@
         <v>64418000</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>110</v>
       </c>
@@ -6644,7 +6646,7 @@
         <v>193699000</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>111</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>112</v>
       </c>
@@ -6720,7 +6722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>102</v>
       </c>
@@ -6758,7 +6760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>104</v>
       </c>
@@ -6796,7 +6798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>103</v>
       </c>
@@ -6834,7 +6836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
@@ -6872,7 +6874,7 @@
         <v>193699000</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
@@ -6910,7 +6912,7 @@
         <v>1510537000</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
@@ -6948,7 +6950,7 @@
         <v>2587773000</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
@@ -6986,7 +6988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
@@ -7024,7 +7026,7 @@
         <v>6961539000</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
@@ -7062,7 +7064,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
@@ -7100,7 +7102,7 @@
         <v>6961454000</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
@@ -7138,7 +7140,7 @@
         <v>373317000</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
@@ -7176,7 +7178,7 @@
         <v>-5606219000</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
@@ -7214,7 +7216,7 @@
         <v>36488000</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
@@ -7252,7 +7254,7 @@
         <v>1018491000</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
@@ -7290,7 +7292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
@@ -7328,7 +7330,7 @@
         <v>1018491000</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
@@ -7366,7 +7368,7 @@
         <v>3606264000</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="33" t="s">
         <v>127</v>
       </c>
@@ -7404,7 +7406,7 @@
         <v>463257000</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
         <v>190</v>
       </c>
@@ -7422,7 +7424,7 @@
         <v>0.26839283713933648</v>
       </c>
       <c r="F129" s="22">
-        <f t="shared" ref="F129:O129" si="6">(F128/E128)-1</f>
+        <f t="shared" ref="F129:L129" si="6">(F128/E128)-1</f>
         <v>2.896268764051757E-2</v>
       </c>
       <c r="G129" s="22">
@@ -7450,7 +7452,7 @@
         <v>3.5157722351473186E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>128</v>
       </c>
@@ -7488,7 +7490,7 @@
         <v>67723000</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>129</v>
       </c>
@@ -7526,7 +7528,7 @@
         <v>138705000</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>130</v>
       </c>
@@ -7564,7 +7566,7 @@
         <v>13.62</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>131</v>
       </c>
@@ -7602,7 +7604,7 @@
         <v>-30.35</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>132</v>
       </c>
@@ -7640,7 +7642,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>133</v>
       </c>
@@ -7678,7 +7680,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>134</v>
       </c>
@@ -7716,7 +7718,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>17</v>
       </c>
@@ -7754,7 +7756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>135</v>
       </c>
@@ -7792,7 +7794,7 @@
         <v>-77270000</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>136</v>
       </c>
@@ -7830,7 +7832,7 @@
         <v>48264000</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>137</v>
       </c>
@@ -7868,7 +7870,7 @@
         <v>108077000</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="33" t="s">
         <v>138</v>
       </c>
@@ -7906,12 +7908,12 @@
         <v>89193000</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B143" s="22">
-        <f t="shared" ref="B143:O143" si="7">B142/B2</f>
+        <f t="shared" ref="B143:L143" si="7">B142/B2</f>
         <v>2.3456558453743667E-2</v>
       </c>
       <c r="C143" s="22">
@@ -7955,7 +7957,7 @@
         <v>0.10194336213192644</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>139</v>
       </c>
@@ -7993,7 +7995,7 @@
         <v>-261000</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>140</v>
       </c>
@@ -8031,7 +8033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>141</v>
       </c>
@@ -8069,7 +8071,7 @@
         <v>19145000</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>142</v>
       </c>
@@ -8107,7 +8109,7 @@
         <v>-96792000</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>143</v>
       </c>
@@ -8145,7 +8147,7 @@
         <v>25005000</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>144</v>
       </c>
@@ -8183,7 +8185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>145</v>
       </c>
@@ -8221,7 +8223,7 @@
         <v>18553000</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>146</v>
       </c>
@@ -8259,7 +8261,7 @@
         <v>-74216000</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>147</v>
       </c>
@@ -8297,7 +8299,7 @@
         <v>-66134000</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>148</v>
       </c>
@@ -8335,7 +8337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>149</v>
       </c>
@@ -8373,7 +8375,7 @@
         <v>-17721000</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>150</v>
       </c>
@@ -8411,7 +8413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>151</v>
       </c>
@@ -8449,7 +8451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>152</v>
       </c>
@@ -8487,7 +8489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>153</v>
       </c>
@@ -8525,7 +8527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>154</v>
       </c>
@@ -8563,7 +8565,7 @@
         <v>-23020000</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>155</v>
       </c>
@@ -8601,7 +8603,7 @@
         <v>-2555000</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>156</v>
       </c>
@@ -8639,7 +8641,7 @@
         <v>-20465000</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>157</v>
       </c>
@@ -8677,7 +8679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>158</v>
       </c>
@@ -8715,7 +8717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>159</v>
       </c>
@@ -8753,7 +8755,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>160</v>
       </c>
@@ -8791,7 +8793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>161</v>
       </c>
@@ -8829,7 +8831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>162</v>
       </c>
@@ -8867,7 +8869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>163</v>
       </c>
@@ -8905,7 +8907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>164</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>23632000</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>148</v>
       </c>
@@ -8981,7 +8983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>165</v>
       </c>
@@ -9019,7 +9021,7 @@
         <v>612000</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>166</v>
       </c>
@@ -9057,7 +9059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>167</v>
       </c>
@@ -9095,7 +9097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>168</v>
       </c>
@@ -9133,7 +9135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>169</v>
       </c>
@@ -9171,7 +9173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>170</v>
       </c>
@@ -9209,7 +9211,7 @@
         <v>-13826000</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>171</v>
       </c>
@@ -9247,7 +9249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>172</v>
       </c>
@@ -9285,7 +9287,7 @@
         <v>-13826000</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>173</v>
       </c>
@@ -9323,7 +9325,7 @@
         <v>1144000</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>148</v>
       </c>
@@ -9361,7 +9363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>174</v>
       </c>
@@ -9399,7 +9401,7 @@
         <v>-12682000</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>175</v>
       </c>
@@ -9437,7 +9439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>176</v>
       </c>
@@ -9475,7 +9477,7 @@
         <v>-29791000</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>47</v>
       </c>
@@ -9513,7 +9515,7 @@
         <v>-20781000</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>48</v>
       </c>
@@ -9551,7 +9553,7 @@
         <v>-31.81</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>177</v>
       </c>
@@ -9589,7 +9591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>178</v>
       </c>
@@ -9627,7 +9629,7 @@
         <v>-40741000</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="30" t="s">
         <v>179</v>
       </c>
@@ -9665,7 +9667,7 @@
         <v>-40741000</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="34" t="s">
         <v>192</v>
       </c>
@@ -9683,7 +9685,7 @@
         <v>2.6260027272299808</v>
       </c>
       <c r="F189" s="36">
-        <f t="shared" ref="F189:O189" si="8">(F188/E188)-1</f>
+        <f t="shared" ref="F189:L189" si="8">(F188/E188)-1</f>
         <v>0.34290182612281517</v>
       </c>
       <c r="G189" s="36">
@@ -9708,12 +9710,12 @@
         <v>-0.82237636626018562</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="23" t="s">
         <v>193</v>
       </c>
       <c r="B190" s="24">
-        <f t="shared" ref="B190:O190" si="9">B188/B2</f>
+        <f t="shared" ref="B190:L190" si="9">B188/B2</f>
         <v>-0.46410625299722691</v>
       </c>
       <c r="C190" s="24">
@@ -9757,7 +9759,7 @@
         <v>-4.6565027710883306E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>180</v>
       </c>
@@ -9795,7 +9797,7 @@
         <v>-20276000</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>181</v>
       </c>
@@ -9833,7 +9835,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>182</v>
       </c>
@@ -9871,7 +9873,7 @@
         <v>-61.52</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>183</v>
       </c>
@@ -9909,12 +9911,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
     </row>
-    <row r="197" spans="1:12" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:12" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:12" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="ROIC AI" display="ROIC AI" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -9931,7 +9930,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9939,52 +9938,52 @@
     <col min="1" max="19" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="e" vm="1">
+    <row r="1" spans="1:18" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-    </row>
-    <row r="2" spans="1:18" s="121" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+    </row>
+    <row r="2" spans="1:18" s="117" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>16229880539</v>
+        <v>18066873625</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>194</v>
@@ -10012,7 +10011,7 @@
       </c>
       <c r="I3" s="42">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>26833533954.956463</v>
+        <v>26458852626.6786</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>198</v>
@@ -10025,114 +10024,114 @@
         <v>199</v>
       </c>
       <c r="M3" s="46"/>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="48"/>
+      <c r="O3" s="119"/>
       <c r="P3" s="46"/>
       <c r="Q3" s="46"/>
       <c r="R3" s="46"/>
     </row>
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
+      <c r="A4" s="47">
         <f>Financials!H56-Financials!H96-Financials!H105</f>
         <v>-206428000</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <f>Financials!H17*0.01</f>
         <v>-0.38180000000000003</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="49">
         <f>SUM(C13:E13)/3</f>
         <v>1.8746045927748536</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>A5*(1+(5*G3))</f>
         <v>902554692.74657655</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="52">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>20780901608.66721</v>
-      </c>
-      <c r="J4" s="52" t="s">
+        <v>20454332647.578053</v>
+      </c>
+      <c r="J4" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="K4" s="55" cm="1">
+      <c r="K4" s="53" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-3.4129E-2</v>
-      </c>
-      <c r="L4" s="56" t="s">
+        <v>1.2920000000000002E-3</v>
+      </c>
+      <c r="L4" s="54" t="s">
         <v>206</v>
       </c>
       <c r="M4" s="46"/>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="120" t="s">
         <v>207</v>
       </c>
-      <c r="O4" s="58"/>
+      <c r="O4" s="121"/>
       <c r="P4" s="46"/>
       <c r="Q4" s="46"/>
       <c r="R4" s="46"/>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" cm="1">
+      <c r="A5" s="47" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>466241900</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="49">
         <f>F14</f>
         <v>-0.18913807079167794</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <f>SUM(C16:E16)/3</f>
         <v>1.1257147608869233</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="51">
         <f>Financials!H56</f>
         <v>1113715000</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>20574473608.66721</v>
-      </c>
-      <c r="J5" s="52" t="s">
+        <v>20247904647.578053</v>
+      </c>
+      <c r="J5" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="K5" s="60" cm="1">
+      <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>34.81</v>
-      </c>
-      <c r="L5" s="61" t="s">
+        <v>38.75</v>
+      </c>
+      <c r="L5" s="57" t="s">
         <v>213</v>
       </c>
       <c r="M5" s="46"/>
-      <c r="N5" s="62" t="s">
+      <c r="N5" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="63">
+      <c r="O5" s="59">
         <f>Financials!H20</f>
         <v>-23885000</v>
       </c>
@@ -10141,53 +10140,53 @@
       <c r="R5" s="46"/>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64">
+      <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>4.3852689918940824</v>
-      </c>
-      <c r="B6" s="50" t="s">
+        <v>4.8816194609564985</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="49">
         <f>F17</f>
         <v>1.6211834639286681E-2</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <f>Financials!H33/Financials!H126</f>
         <v>-1.1464107193878001</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="51">
         <f>Financials!H96+Financials!H105</f>
         <v>1320143000</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="53">
         <f>N25</f>
-        <v>8.8180272969108839E-2</v>
-      </c>
-      <c r="J6" s="52" t="s">
+        <v>8.9074962883710598E-2</v>
+      </c>
+      <c r="J6" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>22.795819216292308</v>
-      </c>
-      <c r="L6" s="66" t="s">
+        <v>22.433991879163994</v>
+      </c>
+      <c r="L6" s="62" t="s">
         <v>219</v>
       </c>
       <c r="M6" s="46"/>
-      <c r="N6" s="62" t="s">
+      <c r="N6" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="O6" s="63">
+      <c r="O6" s="59">
         <f>Financials!H96</f>
         <v>3305000</v>
       </c>
@@ -10196,52 +10195,52 @@
       <c r="R6" s="46"/>
     </row>
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67">
+      <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>-23.185543627142856</v>
-      </c>
-      <c r="B7" s="68" t="s">
+        <v>-25.809819464285713</v>
+      </c>
+      <c r="B7" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="65">
         <f>F15/A3</f>
-        <v>3.6968848819202019E-3</v>
-      </c>
-      <c r="D7" s="68" t="s">
+        <v>3.3209951674746381E-3</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="66">
         <f>(Financials!H16*(1-0.25))/(Financials!H126+Financials!H105+Financials!H96)</f>
         <v>-0.36754789334286597</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="67">
         <f>(Financials!H96+Financials!H105)/Financials!H126</f>
         <v>1.2961754203031741</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="69">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="70" t="s">
         <v>224</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7" s="71">
         <f>K6/K5-1</f>
-        <v>-0.34513590300797736</v>
-      </c>
-      <c r="L7" s="76" t="s">
+        <v>-0.42105827408609053</v>
+      </c>
+      <c r="L7" s="72" t="s">
         <v>225</v>
       </c>
       <c r="M7" s="46"/>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="O7" s="63">
+      <c r="O7" s="59">
         <f>Financials!H105</f>
         <v>1316838000</v>
       </c>
@@ -10250,7 +10249,7 @@
       <c r="R7" s="46"/>
     </row>
     <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -10259,14 +10258,14 @@
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
       <c r="M8" s="46"/>
-      <c r="N8" s="79" t="s">
+      <c r="N8" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="O8" s="80">
+      <c r="O8" s="76">
         <f>O5/(O6+O7)</f>
         <v>-1.8092736923196958E-2</v>
       </c>
@@ -10275,41 +10274,41 @@
       <c r="R8" s="46"/>
     </row>
     <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82">
+      <c r="A9" s="77"/>
+      <c r="B9" s="78">
         <v>2019</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="78">
         <v>2020</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="78">
         <v>2021</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="79">
         <v>2022</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="80">
         <v>2023</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="81">
         <v>2024</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="81">
         <v>2025</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="81">
         <v>2026</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="82">
         <v>2027</v>
       </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="62" t="s">
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="O9" s="63">
+      <c r="O9" s="59">
         <f>Financials!H25</f>
         <v>14910000</v>
       </c>
@@ -10318,44 +10317,44 @@
       <c r="R9" s="46"/>
     </row>
     <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="84">
         <v>323410000</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="84">
         <v>614532000</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="84">
         <v>1296025000</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="85">
         <v>2240461000</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="84">
         <v>3701000000</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="84">
         <v>4685000000</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10" s="84">
         <v>5444000000</v>
       </c>
-      <c r="I10" s="88">
+      <c r="I10" s="84">
         <v>6441000000</v>
       </c>
-      <c r="J10" s="89">
+      <c r="J10" s="85">
         <v>7300000000</v>
       </c>
-      <c r="K10" s="90" t="s">
+      <c r="K10" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="N10" s="62" t="s">
+      <c r="L10" s="74"/>
+      <c r="N10" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="O10" s="63">
+      <c r="O10" s="59">
         <f>Financials!H24</f>
         <v>-1151791000</v>
       </c>
@@ -10364,50 +10363,50 @@
       <c r="R10" s="46"/>
     </row>
     <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92">
+      <c r="A11" s="87"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.90016387866794467</v>
       </c>
-      <c r="D11" s="92">
+      <c r="D11" s="88">
         <f t="shared" si="0"/>
         <v>1.1089625926721474</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="88">
         <f t="shared" si="0"/>
         <v>0.72871742443239906</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="89">
         <f t="shared" si="0"/>
         <v>0.65189217754738871</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="88">
         <f t="shared" si="0"/>
         <v>0.26587408808430157</v>
       </c>
-      <c r="H11" s="92">
+      <c r="H11" s="88">
         <f t="shared" si="0"/>
         <v>0.16200640341515471</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="88">
         <f t="shared" si="0"/>
         <v>0.18313739897134451</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="90">
         <f t="shared" si="0"/>
         <v>0.13336438441235843</v>
       </c>
-      <c r="K11" s="94">
+      <c r="K11" s="90">
         <f>SUM(F11:J11)/5</f>
         <v>0.27925489048610957</v>
       </c>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="62" t="s">
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="O11" s="95">
+      <c r="O11" s="91">
         <f>O9/O10</f>
         <v>-1.2945056872297144E-2</v>
       </c>
@@ -10416,45 +10415,45 @@
       <c r="R11" s="46"/>
     </row>
     <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B12" s="84">
         <v>-142734000</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="84">
         <v>-844270000</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="84">
         <v>-1523195000</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="84">
         <v>-1377987000</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="92">
         <v>-700000000</v>
       </c>
-      <c r="G12" s="88">
-        <v>62000000</v>
-      </c>
-      <c r="H12" s="88">
+      <c r="G12" s="84">
+        <v>85000000</v>
+      </c>
+      <c r="H12" s="84">
         <v>365000000</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="84">
         <v>809000000</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="85">
         <v>980000000</v>
       </c>
-      <c r="K12" s="97" t="s">
+      <c r="K12" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="62" t="s">
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="O12" s="95">
+      <c r="O12" s="91">
         <f>O8*(1-O11)</f>
         <v>-1.8326948431643252E-2</v>
       </c>
@@ -10463,148 +10462,148 @@
       <c r="R12" s="46"/>
     </row>
     <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92">
+      <c r="A13" s="87"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>4.9149887202768783</v>
       </c>
-      <c r="D13" s="92">
+      <c r="D13" s="88">
         <f t="shared" si="1"/>
         <v>0.80415625333128027</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="88">
         <f t="shared" si="1"/>
         <v>-9.5331195283598014E-2</v>
       </c>
-      <c r="F13" s="93">
+      <c r="F13" s="89">
         <f t="shared" si="1"/>
         <v>-0.49201262421198455</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="88">
         <f t="shared" si="1"/>
-        <v>-1.0885714285714285</v>
-      </c>
-      <c r="H13" s="92">
+        <v>-1.1214285714285714</v>
+      </c>
+      <c r="H13" s="88">
         <f t="shared" si="1"/>
-        <v>4.887096774193548</v>
-      </c>
-      <c r="I13" s="92">
+        <v>3.2941176470588234</v>
+      </c>
+      <c r="I13" s="88">
         <f t="shared" si="1"/>
         <v>1.2164383561643834</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="90">
         <f t="shared" si="1"/>
         <v>0.21137206427688504</v>
       </c>
-      <c r="K13" s="94">
-        <f>AVERAGE(G13:J13)</f>
-        <v>1.3065839415158469</v>
-      </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="57" t="s">
+      <c r="K13" s="90">
+        <f>AVERAGE(F13:J13)</f>
+        <v>0.6216973743719072</v>
+      </c>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="120" t="s">
         <v>234</v>
       </c>
-      <c r="O13" s="58"/>
+      <c r="O13" s="121"/>
       <c r="P13" s="46"/>
       <c r="Q13" s="46"/>
       <c r="R13" s="46"/>
     </row>
     <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="110" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="94">
         <f>B12/B10</f>
         <v>-0.44134071302680805</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="94">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>-1.3738422083797102</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="94">
         <f t="shared" si="2"/>
         <v>-1.1752821126135684</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="94">
         <f t="shared" si="2"/>
         <v>-0.61504618915482123</v>
       </c>
-      <c r="F14" s="99">
+      <c r="F14" s="95">
         <f t="shared" si="2"/>
         <v>-0.18913807079167794</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="94">
         <f t="shared" si="2"/>
-        <v>1.3233724653148345E-2</v>
-      </c>
-      <c r="H14" s="98">
+        <v>1.8143009605122731E-2</v>
+      </c>
+      <c r="H14" s="94">
         <f t="shared" si="2"/>
         <v>6.7046289493019842E-2</v>
       </c>
-      <c r="I14" s="98">
+      <c r="I14" s="94">
         <f t="shared" si="2"/>
         <v>0.12560161465610931</v>
       </c>
-      <c r="J14" s="100">
+      <c r="J14" s="96">
         <f t="shared" si="2"/>
         <v>0.13424657534246576</v>
       </c>
-      <c r="K14" s="100"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="62" t="s">
+      <c r="K14" s="96"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="O14" s="95">
+      <c r="O14" s="91">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
+        <v>4.4839999999999998E-2</v>
       </c>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
       <c r="R14" s="46"/>
     </row>
     <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="88">
+      <c r="B15" s="84">
         <v>-106335000</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="84">
         <v>-385571000</v>
       </c>
-      <c r="D15" s="88">
+      <c r="D15" s="84">
         <v>-517784000</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="84">
         <v>-729164000</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F15" s="92">
         <v>60000000</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="84">
         <v>573000000</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="84">
         <v>858000000</v>
       </c>
-      <c r="I15" s="88">
+      <c r="I15" s="84">
         <v>1270000000</v>
       </c>
-      <c r="J15" s="89">
+      <c r="J15" s="85">
         <v>1654000000</v>
       </c>
-      <c r="K15" s="97" t="s">
+      <c r="K15" s="93" t="s">
         <v>237</v>
       </c>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="62" t="s">
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="O15" s="101">
+      <c r="O15" s="97">
         <f>1.33</f>
         <v>1.33</v>
       </c>
@@ -10613,50 +10612,50 @@
       <c r="R15" s="46"/>
     </row>
     <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="102"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92">
+      <c r="A16" s="98"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>2.6260027272299808</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D16" s="88">
         <f t="shared" si="3"/>
         <v>0.34290182612281517</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="88">
         <f t="shared" si="3"/>
         <v>0.40823972930797403</v>
       </c>
-      <c r="F16" s="93">
+      <c r="F16" s="89">
         <f t="shared" si="3"/>
         <v>-1.0822860152174272</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="88">
         <f t="shared" si="3"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="88">
         <f t="shared" si="3"/>
         <v>0.4973821989528795</v>
       </c>
-      <c r="I16" s="92">
+      <c r="I16" s="88">
         <f t="shared" si="3"/>
         <v>0.48018648018648014</v>
       </c>
-      <c r="J16" s="94">
+      <c r="J16" s="90">
         <f t="shared" si="3"/>
         <v>0.30236220472440944</v>
       </c>
-      <c r="K16" s="94">
-        <f>SUM(F16:J16)/5</f>
-        <v>1.7495289737292687</v>
-      </c>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="62" t="s">
+      <c r="K16" s="90">
+        <f>AVERAGE(J16,I16,H16)</f>
+        <v>0.42664362795458971</v>
+      </c>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="O16" s="95">
+      <c r="O16" s="91">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="46"/>
@@ -10664,111 +10663,111 @@
       <c r="R16" s="46"/>
     </row>
     <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="110" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="98">
+      <c r="B17" s="94">
         <f>B15/B10</f>
         <v>-0.32879317275285241</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="94">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>-0.62742216841433807</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="94">
         <f t="shared" si="4"/>
         <v>-0.39951698462606816</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E17" s="96">
         <f t="shared" si="4"/>
         <v>-0.32545266353665608</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="94">
         <f t="shared" si="4"/>
         <v>1.6211834639286681E-2</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="94">
         <f t="shared" si="4"/>
         <v>0.12230522945570971</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="94">
         <f t="shared" si="4"/>
         <v>0.15760470242468774</v>
       </c>
-      <c r="I17" s="98">
+      <c r="I17" s="94">
         <f t="shared" si="4"/>
         <v>0.19717435180872536</v>
       </c>
-      <c r="J17" s="100">
+      <c r="J17" s="96">
         <f t="shared" si="4"/>
         <v>0.22657534246575342</v>
       </c>
-      <c r="K17" s="100"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="103" t="s">
+      <c r="K17" s="96"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="O17" s="104">
+      <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6843600000000002E-2</v>
+        <v>9.6922800000000003E-2</v>
       </c>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
       <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="106">
+      <c r="B18" s="102">
         <v>0.47203957257835921</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="102">
         <v>-0.22762804937084316</v>
       </c>
-      <c r="D18" s="106">
+      <c r="D18" s="102">
         <v>-0.39077744245754698</v>
       </c>
-      <c r="E18" s="106">
+      <c r="E18" s="102">
         <v>-0.42827874038530911</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="57" t="s">
+      <c r="F18" s="103"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="120" t="s">
         <v>240</v>
       </c>
-      <c r="O18" s="58"/>
+      <c r="O18" s="121"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="46"/>
       <c r="R18" s="46"/>
     </row>
     <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78" t="s">
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74" t="s">
         <v>241</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="62" t="s">
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="O19" s="110">
+      <c r="O19" s="106">
         <f>O6+O7</f>
         <v>1320143000</v>
       </c>
@@ -10777,252 +10776,252 @@
       <c r="R19" s="46"/>
     </row>
     <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="62" t="s">
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="O20" s="110">
+      <c r="O20" s="106">
         <f>A3</f>
-        <v>16229880539</v>
+        <v>18066873625</v>
       </c>
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
       <c r="R20" s="46"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="112" t="str" cm="1">
+      <c r="A21" s="111" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Hotels &amp; Entertainment Services</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113" cm="1">
+      <c r="B21" s="111"/>
+      <c r="C21" s="122" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2021</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="62" t="s">
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="O21" s="110">
+      <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>17550023539</v>
+        <v>19387016625</v>
       </c>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
       <c r="R21" s="46"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="112" t="str" cm="1">
+      <c r="A22" s="111" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>DraftKings Inc. is a digital sports entertainment and gaming company. The Company provides users with sports betting, online casino and daily fantasy sports products, as well as media and other online consumer products. Its segments include business-to-consumer (B2C) and business-to-business (B2B). Its B2C segment includes its DraftKings-branded Sportsbook, iGaming and DFS products, as well as its other online consumer products, and its GNOG-branded Sportsbooks and iGaming products. Across its DraftKings-branded products, it offers users a single integrated product that provides one account, one wallet, a centralized payment system and responsible gaming controls. Its B2B segment is engaged in the design and development of sports betting and casino gaming software. Its B2B services are delivered through its software, and its complementary service offerings include trading and risk management and support for reporting, customer management and regulatory reporting requirements.</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="79" t="s">
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="O22" s="114">
+      <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>7.5221722470420221E-2</v>
+        <v>6.8094180014146452E-2</v>
       </c>
       <c r="P22" s="46"/>
       <c r="Q22" s="46"/>
       <c r="R22" s="46"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="103" t="s">
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="99" t="s">
         <v>244</v>
       </c>
-      <c r="O23" s="115">
+      <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.92477827752957975</v>
+        <v>0.93190581998585353</v>
       </c>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
       <c r="R23" s="46"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="116" t="s">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="112" t="s">
         <v>245</v>
       </c>
-      <c r="O24" s="117"/>
+      <c r="O24" s="113"/>
       <c r="P24" s="46"/>
       <c r="Q24" s="46"/>
       <c r="R24" s="46"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="118">
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.8180272969108839E-2</v>
-      </c>
-      <c r="O25" s="119"/>
+        <v>8.9074962883710598E-2</v>
+      </c>
+      <c r="O25" s="115"/>
       <c r="P25" s="46"/>
       <c r="Q25" s="46"/>
       <c r="R25" s="46"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
       <c r="O26" s="46"/>
       <c r="P26" s="46"/>
       <c r="Q26" s="46"/>
       <c r="R26" s="46"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="112"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
       <c r="O27" s="46"/>
       <c r="P27" s="46"/>
       <c r="Q27" s="46"/>
       <c r="R27" s="46"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="112"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
       <c r="O28" s="46"/>
       <c r="P28" s="46"/>
       <c r="Q28" s="46"/>
       <c r="R28" s="46"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="112"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
       <c r="O29" s="46"/>
       <c r="P29" s="46"/>
       <c r="Q29" s="46"/>
       <c r="R29" s="46"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="112"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
       <c r="O30" s="46"/>
       <c r="P30" s="46"/>
       <c r="Q30" s="46"/>
@@ -11069,582 +11068,582 @@
       <c r="R32" s="46"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
       <c r="Q33" s="46"/>
       <c r="R33" s="46"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
       <c r="Q34" s="46"/>
       <c r="R34" s="46"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
       <c r="Q35" s="46"/>
       <c r="R35" s="46"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
       <c r="Q36" s="46"/>
       <c r="R36" s="46"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
       <c r="Q37" s="46"/>
       <c r="R37" s="46"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
       <c r="Q38" s="46"/>
       <c r="R38" s="46"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
       <c r="Q39" s="46"/>
       <c r="R39" s="46"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
       <c r="Q40" s="46"/>
       <c r="R40" s="46"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
       <c r="Q41" s="46"/>
       <c r="R41" s="46"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
       <c r="Q42" s="46"/>
       <c r="R42" s="46"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
       <c r="Q43" s="46"/>
       <c r="R43" s="46"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="78"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
       <c r="Q44" s="46"/>
       <c r="R44" s="46"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
       <c r="Q45" s="46"/>
       <c r="R45" s="46"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
       <c r="Q46" s="46"/>
       <c r="R46" s="46"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
+      <c r="A47" s="74"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
       <c r="Q47" s="46"/>
       <c r="R47" s="46"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="78"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
       <c r="Q48" s="46"/>
       <c r="R48" s="46"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
+      <c r="A49" s="74"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
       <c r="Q49" s="46"/>
       <c r="R49" s="46"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
       <c r="Q50" s="46"/>
       <c r="R50" s="46"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="78"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
+      <c r="A51" s="74"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="74"/>
       <c r="Q51" s="46"/>
       <c r="R51" s="46"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="78"/>
-      <c r="P52" s="78"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
       <c r="Q52" s="46"/>
       <c r="R52" s="46"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="78"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
+      <c r="A53" s="74"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
       <c r="Q53" s="46"/>
       <c r="R53" s="46"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="78"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="78"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="78"/>
+      <c r="A54" s="74"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
       <c r="Q54" s="46"/>
       <c r="R54" s="46"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="78"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
+      <c r="A55" s="74"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
       <c r="Q55" s="46"/>
       <c r="R55" s="46"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
+      <c r="A56" s="74"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="74"/>
       <c r="Q56" s="46"/>
       <c r="R56" s="46"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
+      <c r="A57" s="74"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="74"/>
       <c r="Q57" s="46"/>
       <c r="R57" s="46"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="78"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
-      <c r="O58" s="78"/>
-      <c r="P58" s="78"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
       <c r="Q58" s="46"/>
       <c r="R58" s="46"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="78"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
+      <c r="A59" s="74"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
       <c r="Q59" s="46"/>
       <c r="R59" s="46"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
+      <c r="O60" s="74"/>
+      <c r="P60" s="74"/>
       <c r="Q60" s="46"/>
       <c r="R60" s="46"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
+      <c r="A61" s="74"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
+      <c r="O61" s="74"/>
+      <c r="P61" s="74"/>
       <c r="Q61" s="46"/>
       <c r="R61" s="46"/>
     </row>

--- a/Consumer/DraftKings.xlsx
+++ b/Consumer/DraftKings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04DEAEE-71B5-614F-848E-262F578D8947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECCF10B-7189-B341-A9FB-22729F3F999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1721,12 +1721,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Quality"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1744,7 +1746,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.4839999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1757,6 +1759,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1884,11 +1888,11 @@
     <v>Powered by Refinitiv</v>
     <v>39.35</v>
     <v>10.6936</v>
-    <v>1.9132</v>
-    <v>0.05</v>
-    <v>1.2920000000000002E-3</v>
-    <v>-0.05</v>
-    <v>-1.2900000000000001E-3</v>
+    <v>1.9095</v>
+    <v>0.49</v>
+    <v>1.3838E-2</v>
+    <v>0.01</v>
+    <v>2.786E-4</v>
     <v>USD</v>
     <v>DraftKings Inc. is a digital sports entertainment and gaming company. The Company provides users with sports betting, online casino and daily fantasy sports products, as well as media and other online consumer products. Its segments include business-to-consumer (B2C) and business-to-business (B2B). Its B2C segment includes its DraftKings-branded Sportsbook, iGaming and DFS products, as well as its other online consumer products, and its GNOG-branded Sportsbooks and iGaming products. Across its DraftKings-branded products, it offers users a single integrated product that provides one account, one wallet, a centralized payment system and responsible gaming controls. Its B2B segment is engaged in the design and development of sports betting and casino gaming software. Its B2B services are delivered through its software, and its complementary service offerings include trading and risk management and support for reporting, customer management and regulatory reporting requirements.</v>
     <v>4200</v>
@@ -1896,24 +1900,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>222 Berkeley Street, 5th Floor, BOSTON, MA, 02116 US</v>
-    <v>39.35</v>
+    <v>36.299799999999998</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45258.040943599219</v>
+    <v>45269.041345589845</v>
     <v>0</v>
-    <v>38.549999999999997</v>
-    <v>18066873625</v>
+    <v>34.85</v>
+    <v>16738084210</v>
     <v>DRAFTKINGS INC.</v>
     <v>DRAFTKINGS INC.</v>
-    <v>38.56</v>
-    <v>38.700000000000003</v>
-    <v>38.75</v>
-    <v>38.700000000000003</v>
+    <v>35.049999999999997</v>
+    <v>35.409999999999997</v>
+    <v>35.9</v>
+    <v>35.909999999999997</v>
     <v>466241900</v>
     <v>DKNG</v>
     <v>DRAFTKINGS INC. (XNAS:DKNG)</v>
-    <v>8717368</v>
-    <v>16080104</v>
+    <v>9739857</v>
+    <v>15767955</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -9930,7 +9934,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9983,7 +9987,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>18066873625</v>
+        <v>16738084210</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>194</v>
@@ -10011,7 +10015,7 @@
       </c>
       <c r="I3" s="42">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>26458852626.6786</v>
+        <v>26240632152.369743</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>198</v>
@@ -10063,14 +10067,14 @@
       </c>
       <c r="I4" s="52">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>20454332647.578053</v>
+        <v>20264187947.257462</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>205</v>
       </c>
       <c r="K4" s="53" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.2920000000000002E-3</v>
+        <v>1.3838E-2</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>206</v>
@@ -10115,14 +10119,14 @@
       </c>
       <c r="I5" s="52">
         <f>I4+G5-G6</f>
-        <v>20247904647.578053</v>
+        <v>20057759947.257462</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>212</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>38.75</v>
+        <v>35.9</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>213</v>
@@ -10142,7 +10146,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="60">
         <f>O20/F10</f>
-        <v>4.8816194609564985</v>
+        <v>4.5225842231829239</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>215</v>
@@ -10170,14 +10174,14 @@
       </c>
       <c r="I6" s="53">
         <f>N25</f>
-        <v>8.9074962883710598E-2</v>
+        <v>8.9607818521890911E-2</v>
       </c>
       <c r="J6" s="50" t="s">
         <v>218</v>
       </c>
       <c r="K6" s="61">
         <f>I5/G4</f>
-        <v>22.433991879163994</v>
+        <v>22.223317997737531</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>219</v>
@@ -10197,14 +10201,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>-25.809819464285713</v>
+        <v>-23.911548871428572</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>221</v>
       </c>
       <c r="C7" s="65">
         <f>F15/A3</f>
-        <v>3.3209951674746381E-3</v>
+        <v>3.5846396306307027E-3</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>222</v>
@@ -10231,7 +10235,7 @@
       </c>
       <c r="K7" s="71">
         <f>K6/K5-1</f>
-        <v>-0.42105827408609053</v>
+        <v>-0.38096607248641967</v>
       </c>
       <c r="L7" s="72" t="s">
         <v>225</v>
@@ -10558,7 +10562,7 @@
       </c>
       <c r="O14" s="91">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.4839999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
@@ -10710,7 +10714,7 @@
       </c>
       <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6922800000000003E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
@@ -10793,7 +10797,7 @@
       </c>
       <c r="O20" s="106">
         <f>A3</f>
-        <v>18066873625</v>
+        <v>16738084210</v>
       </c>
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
@@ -10823,7 +10827,7 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>19387016625</v>
+        <v>18058227210</v>
       </c>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
@@ -10851,7 +10855,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>6.8094180014146452E-2</v>
+        <v>7.3104795096882599E-2</v>
       </c>
       <c r="P22" s="46"/>
       <c r="Q22" s="46"/>
@@ -10876,7 +10880,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.93190581998585353</v>
+        <v>0.92689520490311739</v>
       </c>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
@@ -10920,7 +10924,7 @@
       <c r="M25" s="74"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.9074962883710598E-2</v>
+        <v>8.9607818521890911E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="46"/>
